--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3277,28 +3277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8269.806938216796</v>
+        <v>8457.18240255323</v>
       </c>
       <c r="AB2" t="n">
-        <v>11315.11469100199</v>
+        <v>11571.49006772919</v>
       </c>
       <c r="AC2" t="n">
-        <v>10235.21602575555</v>
+        <v>10467.12329635299</v>
       </c>
       <c r="AD2" t="n">
-        <v>8269806.938216795</v>
+        <v>8457182.402553231</v>
       </c>
       <c r="AE2" t="n">
-        <v>11315114.69100199</v>
+        <v>11571490.06772919</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.60925623758239e-07</v>
+        <v>9.482725979618438e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.12083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10235216.02575555</v>
+        <v>10467123.29635299</v>
       </c>
     </row>
     <row r="3">
@@ -3383,28 +3383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2747.70146262651</v>
+        <v>2851.675712471726</v>
       </c>
       <c r="AB3" t="n">
-        <v>3759.526361199056</v>
+        <v>3901.788516857456</v>
       </c>
       <c r="AC3" t="n">
-        <v>3400.722441814464</v>
+        <v>3529.407297003011</v>
       </c>
       <c r="AD3" t="n">
-        <v>2747701.462626509</v>
+        <v>2851675.712471726</v>
       </c>
       <c r="AE3" t="n">
-        <v>3759526.361199056</v>
+        <v>3901788.516857456</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057078561704083e-06</v>
+        <v>1.78704375678323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3400722.441814464</v>
+        <v>3529407.297003011</v>
       </c>
     </row>
     <row r="4">
@@ -3489,28 +3489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2087.283687614106</v>
+        <v>2170.514309904732</v>
       </c>
       <c r="AB4" t="n">
-        <v>2855.913625850922</v>
+        <v>2969.793435144864</v>
       </c>
       <c r="AC4" t="n">
-        <v>2583.349237699658</v>
+        <v>2686.360517825903</v>
       </c>
       <c r="AD4" t="n">
-        <v>2087283.687614106</v>
+        <v>2170514.309904732</v>
       </c>
       <c r="AE4" t="n">
-        <v>2855913.625850922</v>
+        <v>2969793.435144864</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.240455287078363e-06</v>
+        <v>2.097051209484931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.33472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2583349.237699658</v>
+        <v>2686360.517825902</v>
       </c>
     </row>
     <row r="5">
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1818.818342363365</v>
+        <v>1891.719821303982</v>
       </c>
       <c r="AB5" t="n">
-        <v>2488.587496623724</v>
+        <v>2588.334516296539</v>
       </c>
       <c r="AC5" t="n">
-        <v>2251.080198700443</v>
+        <v>2341.307502811507</v>
       </c>
       <c r="AD5" t="n">
-        <v>1818818.342363365</v>
+        <v>1891719.821303982</v>
       </c>
       <c r="AE5" t="n">
-        <v>2488587.496623724</v>
+        <v>2588334.516296539</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.338927275644504e-06</v>
+        <v>2.263522991961978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.13333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2251080.198700443</v>
+        <v>2341307.502811507</v>
       </c>
     </row>
     <row r="6">
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1655.958141546308</v>
+        <v>1728.774279632353</v>
       </c>
       <c r="AB6" t="n">
-        <v>2265.75498498085</v>
+        <v>2365.385237531467</v>
       </c>
       <c r="AC6" t="n">
-        <v>2049.514509221371</v>
+        <v>2139.636190300495</v>
       </c>
       <c r="AD6" t="n">
-        <v>1655958.141546308</v>
+        <v>1728774.279632353</v>
       </c>
       <c r="AE6" t="n">
-        <v>2265754.98498085</v>
+        <v>2365385.237531467</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40049050405178e-06</v>
+        <v>2.367598684117998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.46805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2049514.509221371</v>
+        <v>2139636.190300495</v>
       </c>
     </row>
     <row r="7">
@@ -3807,28 +3807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1547.995513026997</v>
+        <v>1620.811651113042</v>
       </c>
       <c r="AB7" t="n">
-        <v>2118.035753665712</v>
+        <v>2217.66600621633</v>
       </c>
       <c r="AC7" t="n">
-        <v>1915.893394017707</v>
+        <v>2006.015075096831</v>
       </c>
       <c r="AD7" t="n">
-        <v>1547995.513026997</v>
+        <v>1620811.651113042</v>
       </c>
       <c r="AE7" t="n">
-        <v>2118035.753665712</v>
+        <v>2217666.00621633</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.443088756883355e-06</v>
+        <v>2.439613144093253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.04027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1915893.394017707</v>
+        <v>2006015.075096831</v>
       </c>
     </row>
     <row r="8">
@@ -3913,28 +3913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1450.344349843659</v>
+        <v>1523.245739275725</v>
       </c>
       <c r="AB8" t="n">
-        <v>1984.425124132998</v>
+        <v>2084.172021336265</v>
       </c>
       <c r="AC8" t="n">
-        <v>1795.034375443898</v>
+        <v>1885.261568773735</v>
       </c>
       <c r="AD8" t="n">
-        <v>1450344.349843659</v>
+        <v>1523245.739275725</v>
       </c>
       <c r="AE8" t="n">
-        <v>1984425.124132998</v>
+        <v>2084172.021336265</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474308024369509e-06</v>
+        <v>2.49239086476005e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.74305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1795034.375443898</v>
+        <v>1885261.568773735</v>
       </c>
     </row>
     <row r="9">
@@ -4019,28 +4019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1383.729471868089</v>
+        <v>1456.630861300155</v>
       </c>
       <c r="AB9" t="n">
-        <v>1893.27970924582</v>
+        <v>1993.026606449087</v>
       </c>
       <c r="AC9" t="n">
-        <v>1712.587751030159</v>
+        <v>1802.814944359996</v>
       </c>
       <c r="AD9" t="n">
-        <v>1383729.471868089</v>
+        <v>1456630.861300155</v>
       </c>
       <c r="AE9" t="n">
-        <v>1893279.70924582</v>
+        <v>1993026.606449087</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.495461266357791e-06</v>
+        <v>2.528151469884749e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.54861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1712587.751030159</v>
+        <v>1802814.944359996</v>
       </c>
     </row>
     <row r="10">
@@ -4125,28 +4125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1363.21240219384</v>
+        <v>1435.943199425314</v>
       </c>
       <c r="AB10" t="n">
-        <v>1865.207349368281</v>
+        <v>1964.720834796702</v>
       </c>
       <c r="AC10" t="n">
-        <v>1687.194577779528</v>
+        <v>1777.210635826714</v>
       </c>
       <c r="AD10" t="n">
-        <v>1363212.402193841</v>
+        <v>1435943.199425314</v>
       </c>
       <c r="AE10" t="n">
-        <v>1865207.349368281</v>
+        <v>1964720.834796702</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502609603305556e-06</v>
+        <v>2.540236088168268e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.48472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1687194.577779528</v>
+        <v>1777210.635826714</v>
       </c>
     </row>
     <row r="11">
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1369.290355106335</v>
+        <v>1442.021152337808</v>
       </c>
       <c r="AB11" t="n">
-        <v>1873.523472683514</v>
+        <v>1973.036958111934</v>
       </c>
       <c r="AC11" t="n">
-        <v>1694.717021957307</v>
+        <v>1784.733080004493</v>
       </c>
       <c r="AD11" t="n">
-        <v>1369290.355106335</v>
+        <v>1442021.152337808</v>
       </c>
       <c r="AE11" t="n">
-        <v>1873523.472683514</v>
+        <v>1973036.958111934</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.502755487733061e-06</v>
+        <v>2.540482713031197e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1694717.021957307</v>
+        <v>1784733.080004493</v>
       </c>
     </row>
   </sheetData>
@@ -4528,28 +4528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4950.0556442001</v>
+        <v>5091.238342668123</v>
       </c>
       <c r="AB2" t="n">
-        <v>6772.884513437426</v>
+        <v>6966.056910022452</v>
       </c>
       <c r="AC2" t="n">
-        <v>6126.489921277819</v>
+        <v>6301.226215451925</v>
       </c>
       <c r="AD2" t="n">
-        <v>4950055.6442001</v>
+        <v>5091238.342668123</v>
       </c>
       <c r="AE2" t="n">
-        <v>6772884.513437426</v>
+        <v>6966056.910022452</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.394854561328564e-07</v>
+        <v>1.280634263095415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.34444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>6126489.921277819</v>
+        <v>6301226.215451925</v>
       </c>
     </row>
     <row r="3">
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2130.402282070418</v>
+        <v>2221.217392665162</v>
       </c>
       <c r="AB3" t="n">
-        <v>2914.91038904418</v>
+        <v>3039.16762984</v>
       </c>
       <c r="AC3" t="n">
-        <v>2636.715432616229</v>
+        <v>2749.113736746514</v>
       </c>
       <c r="AD3" t="n">
-        <v>2130402.282070418</v>
+        <v>2221217.392665162</v>
       </c>
       <c r="AE3" t="n">
-        <v>2914910.38904418</v>
+        <v>3039167.62984</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196457284943119e-06</v>
+        <v>2.072013966902133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.51944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>2636715.432616229</v>
+        <v>2749113.736746514</v>
       </c>
     </row>
     <row r="4">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1678.670301540671</v>
+        <v>1759.224252090961</v>
       </c>
       <c r="AB4" t="n">
-        <v>2296.830764274921</v>
+        <v>2407.04823320731</v>
       </c>
       <c r="AC4" t="n">
-        <v>2077.624459754745</v>
+        <v>2177.322928143416</v>
       </c>
       <c r="AD4" t="n">
-        <v>1678670.301540671</v>
+        <v>1759224.252090961</v>
       </c>
       <c r="AE4" t="n">
-        <v>2296830.76427492</v>
+        <v>2407048.23320731</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363822462667882e-06</v>
+        <v>2.361855476651687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.36944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2077624.459754745</v>
+        <v>2177322.928143417</v>
       </c>
     </row>
     <row r="5">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1471.863205266662</v>
+        <v>1542.411928827662</v>
       </c>
       <c r="AB5" t="n">
-        <v>2013.86817146765</v>
+        <v>2110.396047433832</v>
       </c>
       <c r="AC5" t="n">
-        <v>1821.667419664507</v>
+        <v>1908.982810626202</v>
       </c>
       <c r="AD5" t="n">
-        <v>1471863.205266662</v>
+        <v>1542411.928827662</v>
       </c>
       <c r="AE5" t="n">
-        <v>2013868.17146765</v>
+        <v>2110396.047433832</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.452258886605404e-06</v>
+        <v>2.515008880360649e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.43333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1821667.419664507</v>
+        <v>1908982.810626202</v>
       </c>
     </row>
     <row r="6">
@@ -4952,28 +4952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1333.54090705971</v>
+        <v>1414.094768101447</v>
       </c>
       <c r="AB6" t="n">
-        <v>1824.609500711783</v>
+        <v>1934.826847174624</v>
       </c>
       <c r="AC6" t="n">
-        <v>1650.471330819368</v>
+        <v>1750.169688426813</v>
       </c>
       <c r="AD6" t="n">
-        <v>1333540.90705971</v>
+        <v>1414094.768101447</v>
       </c>
       <c r="AE6" t="n">
-        <v>1824609.500711783</v>
+        <v>1934826.847174624</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.506739345720498e-06</v>
+        <v>2.609357649539719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.91111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1650471.330819368</v>
+        <v>1750169.688426813</v>
       </c>
     </row>
     <row r="7">
@@ -5058,28 +5058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1255.498119428628</v>
+        <v>1326.132094335649</v>
       </c>
       <c r="AB7" t="n">
-        <v>1717.827915670143</v>
+        <v>1814.472436288974</v>
       </c>
       <c r="AC7" t="n">
-        <v>1553.880830385206</v>
+        <v>1641.301733597613</v>
       </c>
       <c r="AD7" t="n">
-        <v>1255498.119428628</v>
+        <v>1326132.094335649</v>
       </c>
       <c r="AE7" t="n">
-        <v>1717827.915670143</v>
+        <v>1814472.436288974</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.536771510163444e-06</v>
+        <v>2.661367081857268e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.63888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1553880.830385206</v>
+        <v>1641301.733597613</v>
       </c>
     </row>
     <row r="8">
@@ -5164,28 +5164,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1249.612070538894</v>
+        <v>1320.246045445915</v>
       </c>
       <c r="AB8" t="n">
-        <v>1709.774363905058</v>
+        <v>1806.41888452389</v>
       </c>
       <c r="AC8" t="n">
-        <v>1546.59589829735</v>
+        <v>1634.016801509757</v>
       </c>
       <c r="AD8" t="n">
-        <v>1249612.070538894</v>
+        <v>1320246.045445915</v>
       </c>
       <c r="AE8" t="n">
-        <v>1709774.363905058</v>
+        <v>1806418.88452389</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.540544395143714e-06</v>
+        <v>2.667900930138367e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.60555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>1546595.89829735</v>
+        <v>1634016.801509757</v>
       </c>
     </row>
   </sheetData>
@@ -5461,28 +5461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1540.468165145533</v>
+        <v>1631.451139563543</v>
       </c>
       <c r="AB2" t="n">
-        <v>2107.736504211142</v>
+        <v>2232.223423695409</v>
       </c>
       <c r="AC2" t="n">
-        <v>1906.577090475993</v>
+        <v>2019.18315308317</v>
       </c>
       <c r="AD2" t="n">
-        <v>1540468.165145533</v>
+        <v>1631451.139563543</v>
       </c>
       <c r="AE2" t="n">
-        <v>2107736.504211142</v>
+        <v>2232223.423695409</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30762289802158e-06</v>
+        <v>2.474303910061526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1906577.090475993</v>
+        <v>2019183.15308317</v>
       </c>
     </row>
     <row r="3">
@@ -5567,28 +5567,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>999.2788320995633</v>
+        <v>1072.116416146715</v>
       </c>
       <c r="AB3" t="n">
-        <v>1367.257383149327</v>
+        <v>1466.916979010059</v>
       </c>
       <c r="AC3" t="n">
-        <v>1236.768257459344</v>
+        <v>1326.916481364249</v>
       </c>
       <c r="AD3" t="n">
-        <v>999278.8320995632</v>
+        <v>1072116.416146714</v>
       </c>
       <c r="AE3" t="n">
-        <v>1367257.383149327</v>
+        <v>1466916.979010059</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.607879385745015e-06</v>
+        <v>3.04245379694365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1236768.257459344</v>
+        <v>1326916.481364249</v>
       </c>
     </row>
     <row r="4">
@@ -5673,28 +5673,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1003.256127632024</v>
+        <v>1076.093711679176</v>
       </c>
       <c r="AB4" t="n">
-        <v>1372.699294362735</v>
+        <v>1472.358890223468</v>
       </c>
       <c r="AC4" t="n">
-        <v>1241.690800304315</v>
+        <v>1331.83902420922</v>
       </c>
       <c r="AD4" t="n">
-        <v>1003256.127632024</v>
+        <v>1076093.711679176</v>
       </c>
       <c r="AE4" t="n">
-        <v>1372699.294362735</v>
+        <v>1472358.890223468</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.610236980152266e-06</v>
+        <v>3.046914872892249e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.525</v>
       </c>
       <c r="AH4" t="n">
-        <v>1241690.800304315</v>
+        <v>1331839.02420922</v>
       </c>
     </row>
   </sheetData>
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2373.100794410259</v>
+        <v>2477.478392124385</v>
       </c>
       <c r="AB2" t="n">
-        <v>3246.981200730434</v>
+        <v>3389.795234737529</v>
       </c>
       <c r="AC2" t="n">
-        <v>2937.093872099335</v>
+        <v>3066.277935141543</v>
       </c>
       <c r="AD2" t="n">
-        <v>2373100.794410259</v>
+        <v>2477478.392124385</v>
       </c>
       <c r="AE2" t="n">
-        <v>3246981.200730434</v>
+        <v>3389795.234737528</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.07552065114056e-06</v>
+        <v>1.959365050417224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2937093.872099335</v>
+        <v>3066277.935141543</v>
       </c>
     </row>
     <row r="3">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1343.833416779409</v>
+        <v>1419.635870810597</v>
       </c>
       <c r="AB3" t="n">
-        <v>1838.692166583758</v>
+        <v>1942.408428357481</v>
       </c>
       <c r="AC3" t="n">
-        <v>1663.209966825667</v>
+        <v>1757.027694142394</v>
       </c>
       <c r="AD3" t="n">
-        <v>1343833.416779409</v>
+        <v>1419635.870810597</v>
       </c>
       <c r="AE3" t="n">
-        <v>1838692.166583758</v>
+        <v>1942408.428357481</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458461422225208e-06</v>
+        <v>2.656999970255711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.34166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1663209.966825667</v>
+        <v>1757027.694142394</v>
       </c>
     </row>
     <row r="4">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1099.358564770722</v>
+        <v>1165.749728877508</v>
       </c>
       <c r="AB4" t="n">
-        <v>1504.190888596202</v>
+        <v>1595.030208298551</v>
       </c>
       <c r="AC4" t="n">
-        <v>1360.633021333751</v>
+        <v>1442.802763857494</v>
       </c>
       <c r="AD4" t="n">
-        <v>1099358.564770722</v>
+        <v>1165749.728877508</v>
       </c>
       <c r="AE4" t="n">
-        <v>1504190.888596202</v>
+        <v>1595030.208298551</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.587665670609679e-06</v>
+        <v>2.89238205090799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.09305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1360633.021333751</v>
+        <v>1442802.763857494</v>
       </c>
     </row>
     <row r="5">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1089.698101077305</v>
+        <v>1156.089265184091</v>
       </c>
       <c r="AB5" t="n">
-        <v>1490.973015981289</v>
+        <v>1581.812335683639</v>
       </c>
       <c r="AC5" t="n">
-        <v>1348.676643929805</v>
+        <v>1430.846386453548</v>
       </c>
       <c r="AD5" t="n">
-        <v>1089698.101077305</v>
+        <v>1156089.265184091</v>
       </c>
       <c r="AE5" t="n">
-        <v>1490973.015981289</v>
+        <v>1581812.335683639</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.595881900868542e-06</v>
+        <v>2.907350238081639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.01944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1348676.643929805</v>
+        <v>1430846.386453548</v>
       </c>
     </row>
   </sheetData>
@@ -6585,28 +6585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1064.477579539517</v>
+        <v>1134.813527930035</v>
       </c>
       <c r="AB2" t="n">
-        <v>1456.465185762405</v>
+        <v>1552.701933353356</v>
       </c>
       <c r="AC2" t="n">
-        <v>1317.462192594968</v>
+        <v>1404.514240064961</v>
       </c>
       <c r="AD2" t="n">
-        <v>1064477.579539517</v>
+        <v>1134813.527930035</v>
       </c>
       <c r="AE2" t="n">
-        <v>1456465.185762405</v>
+        <v>1552701.933353357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.513734873904585e-06</v>
+        <v>2.966432626768687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1317462.192594968</v>
+        <v>1404514.240064961</v>
       </c>
     </row>
     <row r="3">
@@ -6691,28 +6691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>951.9080161276424</v>
+        <v>1022.158623663589</v>
       </c>
       <c r="AB3" t="n">
-        <v>1302.442542883639</v>
+        <v>1398.562523352392</v>
       </c>
       <c r="AC3" t="n">
-        <v>1178.139254580414</v>
+        <v>1265.085679018469</v>
       </c>
       <c r="AD3" t="n">
-        <v>951908.0161276425</v>
+        <v>1022158.623663589</v>
       </c>
       <c r="AE3" t="n">
-        <v>1302442.542883639</v>
+        <v>1398562.523352392</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.596111433766983e-06</v>
+        <v>3.127864142332875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.21944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1178139.254580413</v>
+        <v>1265085.679018469</v>
       </c>
     </row>
   </sheetData>
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5608.162242302618</v>
+        <v>5760.712588306838</v>
       </c>
       <c r="AB2" t="n">
-        <v>7673.334994575361</v>
+        <v>7882.061108024631</v>
       </c>
       <c r="AC2" t="n">
-        <v>6941.002672286104</v>
+        <v>7129.808258416708</v>
       </c>
       <c r="AD2" t="n">
-        <v>5608162.242302618</v>
+        <v>5760712.588306839</v>
       </c>
       <c r="AE2" t="n">
-        <v>7673334.994575361</v>
+        <v>7882061.108024631</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.920129031350582e-07</v>
+        <v>1.190595195045586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.01666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6941002.672286103</v>
+        <v>7129808.258416708</v>
       </c>
     </row>
     <row r="3">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2270.926141510002</v>
+        <v>2372.512524701019</v>
       </c>
       <c r="AB3" t="n">
-        <v>3107.181333004738</v>
+        <v>3246.176304161622</v>
       </c>
       <c r="AC3" t="n">
-        <v>2810.636307539039</v>
+        <v>2936.365793729372</v>
       </c>
       <c r="AD3" t="n">
-        <v>2270926.141510002</v>
+        <v>2372512.524701019</v>
       </c>
       <c r="AE3" t="n">
-        <v>3107181.333004738</v>
+        <v>3246176.304161622</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.159686200758427e-06</v>
+        <v>1.995218314757612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2810636.307539039</v>
+        <v>2936365.793729372</v>
       </c>
     </row>
     <row r="4">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1776.454593278408</v>
+        <v>1857.860245198537</v>
       </c>
       <c r="AB4" t="n">
-        <v>2430.62354616898</v>
+        <v>2542.006350489997</v>
       </c>
       <c r="AC4" t="n">
-        <v>2198.648246324185</v>
+        <v>2299.400832127552</v>
       </c>
       <c r="AD4" t="n">
-        <v>1776454.593278408</v>
+        <v>1857860.245198537</v>
       </c>
       <c r="AE4" t="n">
-        <v>2430623.54616898</v>
+        <v>2542006.350489997</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330782539895342e-06</v>
+        <v>2.289586350878674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.60833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2198648.246324185</v>
+        <v>2299400.832127552</v>
       </c>
     </row>
     <row r="5">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1559.534022227693</v>
+        <v>1640.85433329325</v>
       </c>
       <c r="AB5" t="n">
-        <v>2133.823250997204</v>
+        <v>2245.089288196024</v>
       </c>
       <c r="AC5" t="n">
-        <v>1930.174154761773</v>
+        <v>2030.821117533201</v>
       </c>
       <c r="AD5" t="n">
-        <v>1559534.022227693</v>
+        <v>1640854.33329325</v>
       </c>
       <c r="AE5" t="n">
-        <v>2133823.250997204</v>
+        <v>2245089.288196024</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420667941837026e-06</v>
+        <v>2.444232495728986e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.62083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1930174.154761773</v>
+        <v>2030821.117533201</v>
       </c>
     </row>
     <row r="6">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1425.084758393764</v>
+        <v>1496.229452477856</v>
       </c>
       <c r="AB6" t="n">
-        <v>1949.863836736725</v>
+        <v>2047.207145864966</v>
       </c>
       <c r="AC6" t="n">
-        <v>1763.771568809654</v>
+        <v>1851.824569136888</v>
       </c>
       <c r="AD6" t="n">
-        <v>1425084.758393764</v>
+        <v>1496229.452477856</v>
       </c>
       <c r="AE6" t="n">
-        <v>1949863.836736725</v>
+        <v>2047207.145864966</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.47794932111101e-06</v>
+        <v>2.542784032297488e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1763771.568809654</v>
+        <v>1851824.569136888</v>
       </c>
     </row>
     <row r="7">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1314.006028407193</v>
+        <v>1385.235973837306</v>
       </c>
       <c r="AB7" t="n">
-        <v>1797.881017921389</v>
+        <v>1895.340971702278</v>
       </c>
       <c r="AC7" t="n">
-        <v>1626.293776912827</v>
+        <v>1714.452289490773</v>
       </c>
       <c r="AD7" t="n">
-        <v>1314006.028407193</v>
+        <v>1385235.973837306</v>
       </c>
       <c r="AE7" t="n">
-        <v>1797881.017921389</v>
+        <v>1895340.971702278</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.517433091681068e-06</v>
+        <v>2.610715117556195e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.68888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1626293.776912827</v>
+        <v>1714452.289490773</v>
       </c>
     </row>
     <row r="8">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1275.083392326699</v>
+        <v>1346.313337756812</v>
       </c>
       <c r="AB8" t="n">
-        <v>1744.625350090542</v>
+        <v>1842.085303871432</v>
       </c>
       <c r="AC8" t="n">
-        <v>1578.120755274958</v>
+        <v>1666.279267852904</v>
       </c>
       <c r="AD8" t="n">
-        <v>1275083.392326699</v>
+        <v>1346313.337756812</v>
       </c>
       <c r="AE8" t="n">
-        <v>1744625.350090542</v>
+        <v>1842085.303871432</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.531192587485785e-06</v>
+        <v>2.634388071509986e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.56527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1578120.755274958</v>
+        <v>1666279.267852904</v>
       </c>
     </row>
     <row r="9">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1280.56688610327</v>
+        <v>1351.796831533383</v>
       </c>
       <c r="AB9" t="n">
-        <v>1752.128108190319</v>
+        <v>1849.588061971209</v>
       </c>
       <c r="AC9" t="n">
-        <v>1584.907460671879</v>
+        <v>1673.065973249825</v>
       </c>
       <c r="AD9" t="n">
-        <v>1280566.88610327</v>
+        <v>1351796.831533383</v>
       </c>
       <c r="AE9" t="n">
-        <v>1752128.108190319</v>
+        <v>1849588.061971209</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.530893468011769e-06</v>
+        <v>2.633873442076209e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.56805555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>1584907.460671879</v>
+        <v>1673065.973249825</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>918.230682794239</v>
+        <v>995.6172804313873</v>
       </c>
       <c r="AB2" t="n">
-        <v>1256.363729677787</v>
+        <v>1362.24748662067</v>
       </c>
       <c r="AC2" t="n">
-        <v>1136.458138634908</v>
+        <v>1232.236498423948</v>
       </c>
       <c r="AD2" t="n">
-        <v>918230.682794239</v>
+        <v>995617.2804313872</v>
       </c>
       <c r="AE2" t="n">
-        <v>1256363.729677788</v>
+        <v>1362247.48662067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569175226546276e-06</v>
+        <v>3.145663400609268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.84166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1136458.138634908</v>
+        <v>1232236.498423948</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>925.4761595674086</v>
+        <v>994.4159634307788</v>
       </c>
       <c r="AB3" t="n">
-        <v>1266.277310646714</v>
+        <v>1360.603791702072</v>
       </c>
       <c r="AC3" t="n">
-        <v>1145.425581349959</v>
+        <v>1230.74967544144</v>
       </c>
       <c r="AD3" t="n">
-        <v>925476.1595674086</v>
+        <v>994415.9634307788</v>
       </c>
       <c r="AE3" t="n">
-        <v>1266277.310646714</v>
+        <v>1360603.791702072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.571323065341594e-06</v>
+        <v>3.14996908793758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.81944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1145425.581349958</v>
+        <v>1230749.67544144</v>
       </c>
     </row>
   </sheetData>
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3455.53246025003</v>
+        <v>3573.218229835789</v>
       </c>
       <c r="AB2" t="n">
-        <v>4728.011959447314</v>
+        <v>4889.034821324285</v>
       </c>
       <c r="AC2" t="n">
-        <v>4276.777133843946</v>
+        <v>4422.432199780378</v>
       </c>
       <c r="AD2" t="n">
-        <v>3455532.460250029</v>
+        <v>3573218.229835789</v>
       </c>
       <c r="AE2" t="n">
-        <v>4728011.959447313</v>
+        <v>4889034.821324285</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.929769202943194e-07</v>
+        <v>1.581528480187844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.18472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4276777.133843946</v>
+        <v>4422432.199780378</v>
       </c>
     </row>
     <row r="3">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1726.670249561401</v>
+        <v>1805.0990121699</v>
       </c>
       <c r="AB3" t="n">
-        <v>2362.506410765136</v>
+        <v>2469.816103798893</v>
       </c>
       <c r="AC3" t="n">
-        <v>2137.032114720283</v>
+        <v>2234.100321260999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1726670.249561401</v>
+        <v>1805099.0121699</v>
       </c>
       <c r="AE3" t="n">
-        <v>2362506.410765136</v>
+        <v>2469816.103798893</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.316375171027635e-06</v>
+        <v>2.331398243647969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.40555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2137032.114720283</v>
+        <v>2234100.321260999</v>
       </c>
     </row>
     <row r="4">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1382.905505685495</v>
+        <v>1461.334178785443</v>
       </c>
       <c r="AB4" t="n">
-        <v>1892.152322363971</v>
+        <v>1999.46189292818</v>
       </c>
       <c r="AC4" t="n">
-        <v>1711.567960370017</v>
+        <v>1808.636056129506</v>
       </c>
       <c r="AD4" t="n">
-        <v>1382905.505685495</v>
+        <v>1461334.178785443</v>
       </c>
       <c r="AE4" t="n">
-        <v>1892152.322363971</v>
+        <v>1999461.89292818</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.469221473073485e-06</v>
+        <v>2.60210040210603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>1711567.960370017</v>
+        <v>1808636.056129506</v>
       </c>
     </row>
     <row r="5">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1208.054658328368</v>
+        <v>1286.397990573745</v>
       </c>
       <c r="AB5" t="n">
-        <v>1652.913679134984</v>
+        <v>1760.106482576996</v>
       </c>
       <c r="AC5" t="n">
-        <v>1495.16191747726</v>
+        <v>1592.12439020481</v>
       </c>
       <c r="AD5" t="n">
-        <v>1208054.658328368</v>
+        <v>1286397.990573745</v>
       </c>
       <c r="AE5" t="n">
-        <v>1652913.679134984</v>
+        <v>1760106.482576996</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.548676671797218e-06</v>
+        <v>2.742821463115257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.94444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1495161.917477259</v>
+        <v>1592124.39020481</v>
       </c>
     </row>
     <row r="6">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1162.415447611685</v>
+        <v>1231.11520982189</v>
       </c>
       <c r="AB6" t="n">
-        <v>1590.468097572544</v>
+        <v>1684.466143048149</v>
       </c>
       <c r="AC6" t="n">
-        <v>1438.676054576214</v>
+        <v>1523.703058518714</v>
       </c>
       <c r="AD6" t="n">
-        <v>1162415.447611685</v>
+        <v>1231115.20982189</v>
       </c>
       <c r="AE6" t="n">
-        <v>1590468.097572544</v>
+        <v>1684466.14304815</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.569512281638666e-06</v>
+        <v>2.779722876374036e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.75972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1438676.054576214</v>
+        <v>1523703.058518714</v>
       </c>
     </row>
     <row r="7">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1168.541650723594</v>
+        <v>1237.241412933799</v>
       </c>
       <c r="AB7" t="n">
-        <v>1598.850238939265</v>
+        <v>1692.848284414871</v>
       </c>
       <c r="AC7" t="n">
-        <v>1446.258216135305</v>
+        <v>1531.285220077805</v>
       </c>
       <c r="AD7" t="n">
-        <v>1168541.650723594</v>
+        <v>1237241.412933799</v>
       </c>
       <c r="AE7" t="n">
-        <v>1598850.238939265</v>
+        <v>1692848.284414871</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.569512281638666e-06</v>
+        <v>2.779722876374036e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.75972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1446258.216135305</v>
+        <v>1531285.220077805</v>
       </c>
     </row>
   </sheetData>
@@ -9257,28 +9257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4391.148136776518</v>
+        <v>4531.093479635506</v>
       </c>
       <c r="AB2" t="n">
-        <v>6008.162604521431</v>
+        <v>6199.641996573901</v>
       </c>
       <c r="AC2" t="n">
-        <v>5434.751998054857</v>
+        <v>5607.956865672844</v>
       </c>
       <c r="AD2" t="n">
-        <v>4391148.136776518</v>
+        <v>4531093.479635506</v>
       </c>
       <c r="AE2" t="n">
-        <v>6008162.604521431</v>
+        <v>6199641.996573901</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.874912319246691e-07</v>
+        <v>1.373315945368812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.86944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>5434751.998054856</v>
+        <v>5607956.865672844</v>
       </c>
     </row>
     <row r="3">
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1994.651532764169</v>
+        <v>2074.669155823325</v>
       </c>
       <c r="AB3" t="n">
-        <v>2729.170224942987</v>
+        <v>2838.653866940911</v>
       </c>
       <c r="AC3" t="n">
-        <v>2468.702049088896</v>
+        <v>2567.736725955794</v>
       </c>
       <c r="AD3" t="n">
-        <v>1994651.532764169</v>
+        <v>2074669.155823325</v>
       </c>
       <c r="AE3" t="n">
-        <v>2729170.224942987</v>
+        <v>2838653.86694091</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234939819303805e-06</v>
+        <v>2.153627210903384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.13472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2468702.049088896</v>
+        <v>2567736.725955794</v>
       </c>
     </row>
     <row r="4">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1586.063851285485</v>
+        <v>1656.079282650816</v>
       </c>
       <c r="AB4" t="n">
-        <v>2170.12253352753</v>
+        <v>2265.920735584406</v>
       </c>
       <c r="AC4" t="n">
-        <v>1963.009084713767</v>
+        <v>2049.664440819956</v>
       </c>
       <c r="AD4" t="n">
-        <v>1586063.851285486</v>
+        <v>1656079.282650816</v>
       </c>
       <c r="AE4" t="n">
-        <v>2170122.53352753</v>
+        <v>2265920.735584406</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39612490798175e-06</v>
+        <v>2.434719931004023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.15555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1963009.084713767</v>
+        <v>2049664.440819956</v>
       </c>
     </row>
     <row r="5">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1388.435175156126</v>
+        <v>1458.365265666885</v>
       </c>
       <c r="AB5" t="n">
-        <v>1899.718260085489</v>
+        <v>1995.399695020167</v>
       </c>
       <c r="AC5" t="n">
-        <v>1718.411815614253</v>
+        <v>1804.961548688503</v>
       </c>
       <c r="AD5" t="n">
-        <v>1388435.175156126</v>
+        <v>1458365.265666885</v>
       </c>
       <c r="AE5" t="n">
-        <v>1899718.260085489</v>
+        <v>1995399.695020167</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.482963755379131e-06</v>
+        <v>2.586159298165993e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.26805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1718411.815614253</v>
+        <v>1804961.548688503</v>
       </c>
     </row>
     <row r="6">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1254.477704148502</v>
+        <v>1324.493046005282</v>
       </c>
       <c r="AB6" t="n">
-        <v>1716.43173846633</v>
+        <v>1812.229818053657</v>
       </c>
       <c r="AC6" t="n">
-        <v>1552.617902374177</v>
+        <v>1639.273147699139</v>
       </c>
       <c r="AD6" t="n">
-        <v>1254477.704148502</v>
+        <v>1324493.046005282</v>
       </c>
       <c r="AE6" t="n">
-        <v>1716431.73846633</v>
+        <v>1812229.818053657</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.535676459237892e-06</v>
+        <v>2.678085650864312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1552617.902374177</v>
+        <v>1639273.147699139</v>
       </c>
     </row>
     <row r="7">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1219.882361999579</v>
+        <v>1289.897703856358</v>
       </c>
       <c r="AB7" t="n">
-        <v>1669.096865099393</v>
+        <v>1764.894944686721</v>
       </c>
       <c r="AC7" t="n">
-        <v>1509.80060288647</v>
+        <v>1596.455848211432</v>
       </c>
       <c r="AD7" t="n">
-        <v>1219882.361999579</v>
+        <v>1289897.703856358</v>
       </c>
       <c r="AE7" t="n">
-        <v>1669096.865099393</v>
+        <v>1764894.944686721</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.550149600470789e-06</v>
+        <v>2.703325545391307e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.65</v>
       </c>
       <c r="AH7" t="n">
-        <v>1509800.60288647</v>
+        <v>1596455.848211432</v>
       </c>
     </row>
     <row r="8">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1226.550348833267</v>
+        <v>1296.565690690046</v>
       </c>
       <c r="AB8" t="n">
-        <v>1678.220298856063</v>
+        <v>1774.01837844339</v>
       </c>
       <c r="AC8" t="n">
-        <v>1518.053308930222</v>
+        <v>1604.708554255184</v>
       </c>
       <c r="AD8" t="n">
-        <v>1226550.348833267</v>
+        <v>1296565.690690046</v>
       </c>
       <c r="AE8" t="n">
-        <v>1678220.298856063</v>
+        <v>1774018.37844339</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550454298180955e-06</v>
+        <v>2.703856911591875e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.64722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1518053.308930222</v>
+        <v>1604708.554255184</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7225.10796298591</v>
+        <v>7411.010937106055</v>
       </c>
       <c r="AB2" t="n">
-        <v>9885.711464225018</v>
+        <v>10140.07211487661</v>
       </c>
       <c r="AC2" t="n">
-        <v>8942.233036762193</v>
+        <v>9172.317863912996</v>
       </c>
       <c r="AD2" t="n">
-        <v>7225107.96298591</v>
+        <v>7411010.937106055</v>
       </c>
       <c r="AE2" t="n">
-        <v>9885711.464225018</v>
+        <v>10140072.11487661</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.03201695958343e-07</v>
+        <v>1.025402905105111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.85694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>8942233.036762193</v>
+        <v>9172317.863912996</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2577.792774516757</v>
+        <v>2681.081686900679</v>
       </c>
       <c r="AB3" t="n">
-        <v>3527.049798284989</v>
+        <v>3668.374244993893</v>
       </c>
       <c r="AC3" t="n">
-        <v>3190.433115782019</v>
+        <v>3318.269755647126</v>
       </c>
       <c r="AD3" t="n">
-        <v>2577792.774516757</v>
+        <v>2681081.686900679</v>
       </c>
       <c r="AE3" t="n">
-        <v>3527049.798284989</v>
+        <v>3668374.244993892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.090380442596566e-06</v>
+        <v>1.853574485946952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.73194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>3190433.115782019</v>
+        <v>3318269.755647126</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1984.444616185495</v>
+        <v>2067.058767430269</v>
       </c>
       <c r="AB4" t="n">
-        <v>2715.204671382666</v>
+        <v>2828.240997794891</v>
       </c>
       <c r="AC4" t="n">
-        <v>2456.069348359594</v>
+        <v>2558.317646426517</v>
       </c>
       <c r="AD4" t="n">
-        <v>1984444.616185495</v>
+        <v>2067058.767430269</v>
       </c>
       <c r="AE4" t="n">
-        <v>2715204.671382666</v>
+        <v>2828240.997794891</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.270076315941543e-06</v>
+        <v>2.159045561041648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.08055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>2456069.348359594</v>
+        <v>2558317.646426517</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1722.805878026653</v>
+        <v>1805.419939762877</v>
       </c>
       <c r="AB5" t="n">
-        <v>2357.219007147254</v>
+        <v>2470.25521108993</v>
       </c>
       <c r="AC5" t="n">
-        <v>2132.249333482775</v>
+        <v>2234.49752076847</v>
       </c>
       <c r="AD5" t="n">
-        <v>1722805.878026653</v>
+        <v>1805419.939762877</v>
       </c>
       <c r="AE5" t="n">
-        <v>2357219.007147254</v>
+        <v>2470255.21108993</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.365512176662402e-06</v>
+        <v>2.321280199123857e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.95694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>2132249.333482774</v>
+        <v>2234497.52076847</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1578.543368440603</v>
+        <v>1650.820094361528</v>
       </c>
       <c r="AB6" t="n">
-        <v>2159.832677118874</v>
+        <v>2258.72488214799</v>
       </c>
       <c r="AC6" t="n">
-        <v>1953.70127775885</v>
+        <v>2043.155349536068</v>
       </c>
       <c r="AD6" t="n">
-        <v>1578543.368440603</v>
+        <v>1650820.094361528</v>
       </c>
       <c r="AE6" t="n">
-        <v>2159832.677118875</v>
+        <v>2258724.88214799</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425655885498814e-06</v>
+        <v>2.42352051803853e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.325</v>
       </c>
       <c r="AH6" t="n">
-        <v>1953701.27775885</v>
+        <v>2043155.349536068</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1463.123082666225</v>
+        <v>1545.651803547877</v>
       </c>
       <c r="AB7" t="n">
-        <v>2001.909550138737</v>
+        <v>2114.828986959216</v>
       </c>
       <c r="AC7" t="n">
-        <v>1810.850112371196</v>
+        <v>1912.992676624953</v>
       </c>
       <c r="AD7" t="n">
-        <v>1463123.082666225</v>
+        <v>1545651.803547877</v>
       </c>
       <c r="AE7" t="n">
-        <v>2001909.550138737</v>
+        <v>2114828.986959216</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46712416396304e-06</v>
+        <v>2.494013843060383e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.92083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1810850.112371196</v>
+        <v>1912992.676624953</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1376.225151522036</v>
+        <v>1448.587128788981</v>
       </c>
       <c r="AB8" t="n">
-        <v>1883.011967081101</v>
+        <v>1982.020816762865</v>
       </c>
       <c r="AC8" t="n">
-        <v>1703.299947766774</v>
+        <v>1792.859531794704</v>
       </c>
       <c r="AD8" t="n">
-        <v>1376225.151522035</v>
+        <v>1448587.128788981</v>
       </c>
       <c r="AE8" t="n">
-        <v>1883011.967081101</v>
+        <v>1982020.816762865</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.496975442431968e-06</v>
+        <v>2.544759038022922e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.64305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1703299.947766774</v>
+        <v>1792859.531794704</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1334.876212567728</v>
+        <v>1407.238189834673</v>
       </c>
       <c r="AB9" t="n">
-        <v>1826.436524617375</v>
+        <v>1925.44537429914</v>
       </c>
       <c r="AC9" t="n">
-        <v>1652.123986127654</v>
+        <v>1741.683570155585</v>
       </c>
       <c r="AD9" t="n">
-        <v>1334876.212567728</v>
+        <v>1407238.189834673</v>
       </c>
       <c r="AE9" t="n">
-        <v>1826436.524617375</v>
+        <v>1925445.37429914</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.511680505717154e-06</v>
+        <v>2.569756671009395e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.51111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1652123.986127654</v>
+        <v>1741683.570155585</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1334.717665496605</v>
+        <v>1406.909050562959</v>
       </c>
       <c r="AB10" t="n">
-        <v>1826.219593520062</v>
+        <v>1924.99503142698</v>
       </c>
       <c r="AC10" t="n">
-        <v>1651.927758629804</v>
+        <v>1741.276207375084</v>
       </c>
       <c r="AD10" t="n">
-        <v>1334717.665496605</v>
+        <v>1406909.050562959</v>
       </c>
       <c r="AE10" t="n">
-        <v>1826219.593520062</v>
+        <v>1924995.03142698</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.513151012045673e-06</v>
+        <v>2.572256434308042e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.49722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1651927.758629804</v>
+        <v>1741276.207375084</v>
       </c>
     </row>
   </sheetData>
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2692.424334779928</v>
+        <v>2807.551409404632</v>
       </c>
       <c r="AB2" t="n">
-        <v>3683.893756224589</v>
+        <v>3841.415698774191</v>
       </c>
       <c r="AC2" t="n">
-        <v>3332.308106507736</v>
+        <v>3474.796375943832</v>
       </c>
       <c r="AD2" t="n">
-        <v>2692424.334779928</v>
+        <v>2807551.409404632</v>
       </c>
       <c r="AE2" t="n">
-        <v>3683893.756224589</v>
+        <v>3841415.698774191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.011470637145381e-06</v>
+        <v>1.823920913126503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3332308.106507736</v>
+        <v>3474796.375943832</v>
       </c>
     </row>
     <row r="3">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1465.088629770274</v>
+        <v>1541.953800659506</v>
       </c>
       <c r="AB3" t="n">
-        <v>2004.598898400314</v>
+        <v>2109.769216262972</v>
       </c>
       <c r="AC3" t="n">
-        <v>1813.282793009212</v>
+        <v>1908.415803342526</v>
       </c>
       <c r="AD3" t="n">
-        <v>1465088.629770274</v>
+        <v>1541953.800659506</v>
       </c>
       <c r="AE3" t="n">
-        <v>2004598.898400314</v>
+        <v>2109769.216262972</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408868191657674e-06</v>
+        <v>2.540522744046605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.68333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1813282.793009212</v>
+        <v>1908415.803342526</v>
       </c>
     </row>
     <row r="4">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1187.242129267375</v>
+        <v>1254.413902449432</v>
       </c>
       <c r="AB4" t="n">
-        <v>1624.437058689753</v>
+        <v>1716.34444216693</v>
       </c>
       <c r="AC4" t="n">
-        <v>1469.403065720133</v>
+        <v>1552.538937511071</v>
       </c>
       <c r="AD4" t="n">
-        <v>1187242.129267375</v>
+        <v>1254413.902449432</v>
       </c>
       <c r="AE4" t="n">
-        <v>1624437.058689753</v>
+        <v>1716344.44216693</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550136817921452e-06</v>
+        <v>2.795263506999787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.25277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1469403.065720133</v>
+        <v>1552538.937511071</v>
       </c>
     </row>
     <row r="5">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1105.946705190441</v>
+        <v>1182.641194370529</v>
       </c>
       <c r="AB5" t="n">
-        <v>1513.205072966704</v>
+        <v>1618.141856584966</v>
       </c>
       <c r="AC5" t="n">
-        <v>1368.786904599419</v>
+        <v>1463.708668868856</v>
       </c>
       <c r="AD5" t="n">
-        <v>1105946.705190441</v>
+        <v>1182641.194370529</v>
       </c>
       <c r="AE5" t="n">
-        <v>1513205.072966704</v>
+        <v>1618141.856584966</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.587681182559122e-06</v>
+        <v>2.862964880937795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1368786.904599419</v>
+        <v>1463708.668868856</v>
       </c>
     </row>
     <row r="6">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1112.178850614186</v>
+        <v>1188.873339794275</v>
       </c>
       <c r="AB6" t="n">
-        <v>1521.732169278324</v>
+        <v>1626.668952896587</v>
       </c>
       <c r="AC6" t="n">
-        <v>1376.500186806914</v>
+        <v>1471.42195107635</v>
       </c>
       <c r="AD6" t="n">
-        <v>1112178.850614186</v>
+        <v>1188873.339794275</v>
       </c>
       <c r="AE6" t="n">
-        <v>1521732.169278324</v>
+        <v>1626668.952896587</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.587363009977447e-06</v>
+        <v>2.862391140480694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.91944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1376500.186806914</v>
+        <v>1471421.95107635</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1799.722895857656</v>
+        <v>1892.154759997847</v>
       </c>
       <c r="AB2" t="n">
-        <v>2462.460264282968</v>
+        <v>2588.929618605626</v>
       </c>
       <c r="AC2" t="n">
-        <v>2227.446512744489</v>
+        <v>2341.845809391446</v>
       </c>
       <c r="AD2" t="n">
-        <v>1799722.895857656</v>
+        <v>1892154.759997847</v>
       </c>
       <c r="AE2" t="n">
-        <v>2462460.264282968</v>
+        <v>2588929.618605626</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222480882618346e-06</v>
+        <v>2.280758569829495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.82638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2227446.512744489</v>
+        <v>2341845.809391445</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1081.924184695773</v>
+        <v>1155.852607837011</v>
       </c>
       <c r="AB3" t="n">
-        <v>1480.336400627092</v>
+        <v>1581.488530660779</v>
       </c>
       <c r="AC3" t="n">
-        <v>1339.055172216429</v>
+        <v>1430.553484927607</v>
       </c>
       <c r="AD3" t="n">
-        <v>1081924.184695773</v>
+        <v>1155852.607837011</v>
       </c>
       <c r="AE3" t="n">
-        <v>1480336.400627092</v>
+        <v>1581488.530660779</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.572968488249063e-06</v>
+        <v>2.934656411118553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.63333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1339055.172216429</v>
+        <v>1430553.484927607</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1031.068371225545</v>
+        <v>1095.745163375859</v>
       </c>
       <c r="AB4" t="n">
-        <v>1410.753233036982</v>
+        <v>1499.246873395731</v>
       </c>
       <c r="AC4" t="n">
-        <v>1276.11292448053</v>
+        <v>1356.160856005044</v>
       </c>
       <c r="AD4" t="n">
-        <v>1031068.371225545</v>
+        <v>1095745.163375859</v>
       </c>
       <c r="AE4" t="n">
-        <v>1410753.233036982</v>
+        <v>1499246.873395731</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.608100106402119e-06</v>
+        <v>3.000200781025542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1276112.92448053</v>
+        <v>1356160.856005044</v>
       </c>
     </row>
   </sheetData>
@@ -22010,28 +22010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1296.11759087557</v>
+        <v>1376.733653839433</v>
       </c>
       <c r="AB2" t="n">
-        <v>1773.405268508456</v>
+        <v>1883.707722385303</v>
       </c>
       <c r="AC2" t="n">
-        <v>1604.153958671935</v>
+        <v>1703.929301161242</v>
       </c>
       <c r="AD2" t="n">
-        <v>1296117.59087557</v>
+        <v>1376733.653839433</v>
       </c>
       <c r="AE2" t="n">
-        <v>1773405.268508456</v>
+        <v>1883707.722385303</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402425666998309e-06</v>
+        <v>2.696916564641091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.97638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1604153.958671935</v>
+        <v>1703929.301161242</v>
       </c>
     </row>
     <row r="3">
@@ -22116,28 +22116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>969.532629340348</v>
+        <v>1041.181869657718</v>
       </c>
       <c r="AB3" t="n">
-        <v>1326.557316224321</v>
+        <v>1424.590967767941</v>
       </c>
       <c r="AC3" t="n">
-        <v>1199.952547798758</v>
+        <v>1288.630005230149</v>
       </c>
       <c r="AD3" t="n">
-        <v>969532.629340348</v>
+        <v>1041181.869657718</v>
       </c>
       <c r="AE3" t="n">
-        <v>1326557.316224321</v>
+        <v>1424590.967767941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606763937999652e-06</v>
+        <v>3.089866637376965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1199952.547798758</v>
+        <v>1288630.005230149</v>
       </c>
     </row>
   </sheetData>
@@ -22413,28 +22413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>899.4527483336396</v>
+        <v>974.9860082299919</v>
       </c>
       <c r="AB2" t="n">
-        <v>1230.670931324795</v>
+        <v>1334.018869807229</v>
       </c>
       <c r="AC2" t="n">
-        <v>1113.217424896656</v>
+        <v>1206.701981180069</v>
       </c>
       <c r="AD2" t="n">
-        <v>899452.7483336397</v>
+        <v>974986.0082299919</v>
       </c>
       <c r="AE2" t="n">
-        <v>1230670.931324795</v>
+        <v>1334018.869807229</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.514246113116956e-06</v>
+        <v>3.123283005291203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.87638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1113217.424896656</v>
+        <v>1206701.981180069</v>
       </c>
     </row>
   </sheetData>
@@ -22710,28 +22710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3891.461285304077</v>
+        <v>4020.123630715921</v>
       </c>
       <c r="AB2" t="n">
-        <v>5324.469009708742</v>
+        <v>5500.510506883312</v>
       </c>
       <c r="AC2" t="n">
-        <v>4816.309160361129</v>
+        <v>4975.549504121144</v>
       </c>
       <c r="AD2" t="n">
-        <v>3891461.285304077</v>
+        <v>4020123.630715921</v>
       </c>
       <c r="AE2" t="n">
-        <v>5324469.009708743</v>
+        <v>5500510.506883312</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.393594037717795e-07</v>
+        <v>1.474721361565502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.46111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4816309.160361129</v>
+        <v>4975549.504121144</v>
       </c>
     </row>
     <row r="3">
@@ -22816,28 +22816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1854.299379605797</v>
+        <v>1943.406072482912</v>
       </c>
       <c r="AB3" t="n">
-        <v>2537.134217091708</v>
+        <v>2659.053925396022</v>
       </c>
       <c r="AC3" t="n">
-        <v>2294.993688302713</v>
+        <v>2405.277550761848</v>
       </c>
       <c r="AD3" t="n">
-        <v>1854299.379605797</v>
+        <v>1943406.072482912</v>
       </c>
       <c r="AE3" t="n">
-        <v>2537134.217091708</v>
+        <v>2659053.925396022</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274503014013135e-06</v>
+        <v>2.239251519312017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.76666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2294993.688302713</v>
+        <v>2405277.550761849</v>
       </c>
     </row>
     <row r="4">
@@ -22922,28 +22922,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1477.819147005439</v>
+        <v>1557.015613912367</v>
       </c>
       <c r="AB4" t="n">
-        <v>2022.01735371225</v>
+        <v>2130.377453635841</v>
       </c>
       <c r="AC4" t="n">
-        <v>1829.038855393132</v>
+        <v>1927.057219464371</v>
       </c>
       <c r="AD4" t="n">
-        <v>1477819.147005439</v>
+        <v>1557015.613912367</v>
       </c>
       <c r="AE4" t="n">
-        <v>2022017.35371225</v>
+        <v>2130377.453635841</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432681101470035e-06</v>
+        <v>2.517164179200072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1829038.855393132</v>
+        <v>1927057.219464371</v>
       </c>
     </row>
     <row r="5">
@@ -23028,28 +23028,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1304.475327573977</v>
+        <v>1373.761658019269</v>
       </c>
       <c r="AB5" t="n">
-        <v>1784.840692576536</v>
+        <v>1879.641306588952</v>
       </c>
       <c r="AC5" t="n">
-        <v>1614.498001916677</v>
+        <v>1700.250978381245</v>
       </c>
       <c r="AD5" t="n">
-        <v>1304475.327573977</v>
+        <v>1373761.658019269</v>
       </c>
       <c r="AE5" t="n">
-        <v>1784840.692576536</v>
+        <v>1879641.306588952</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51484753989609e-06</v>
+        <v>2.661527370231415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.10833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1614498.001916677</v>
+        <v>1700250.978381245</v>
       </c>
     </row>
     <row r="6">
@@ -23134,28 +23134,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1194.890286856021</v>
+        <v>1264.261868647333</v>
       </c>
       <c r="AB6" t="n">
-        <v>1634.901605315438</v>
+        <v>1729.818863980503</v>
       </c>
       <c r="AC6" t="n">
-        <v>1478.868890702947</v>
+        <v>1564.727379418227</v>
       </c>
       <c r="AD6" t="n">
-        <v>1194890.286856021</v>
+        <v>1264261.868647333</v>
       </c>
       <c r="AE6" t="n">
-        <v>1634901.605315438</v>
+        <v>1729818.863980504</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.55793106566256e-06</v>
+        <v>2.737223425453842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.71805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1478868.890702947</v>
+        <v>1564727.379418227</v>
       </c>
     </row>
     <row r="7">
@@ -23240,28 +23240,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1194.444598120668</v>
+        <v>1263.816179911979</v>
       </c>
       <c r="AB7" t="n">
-        <v>1634.291794325329</v>
+        <v>1729.209052990393</v>
       </c>
       <c r="AC7" t="n">
-        <v>1478.317279217858</v>
+        <v>1564.175767933138</v>
       </c>
       <c r="AD7" t="n">
-        <v>1194444.598120668</v>
+        <v>1263816.179911979</v>
       </c>
       <c r="AE7" t="n">
-        <v>1634291.794325328</v>
+        <v>1729209.052990393</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.559931372216004e-06</v>
+        <v>2.740737885160598e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.69861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1478317.279217858</v>
+        <v>1564175.767933138</v>
       </c>
     </row>
   </sheetData>
@@ -23537,28 +23537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6345.094659387933</v>
+        <v>6519.308392809857</v>
       </c>
       <c r="AB2" t="n">
-        <v>8681.638438795269</v>
+        <v>8920.005354630635</v>
       </c>
       <c r="AC2" t="n">
-        <v>7853.075050952396</v>
+        <v>8068.692562890496</v>
       </c>
       <c r="AD2" t="n">
-        <v>6345094.659387933</v>
+        <v>6519308.392809857</v>
       </c>
       <c r="AE2" t="n">
-        <v>8681638.438795269</v>
+        <v>8920005.354630636</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.470667450410832e-07</v>
+        <v>1.106412023352122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7853075.050952396</v>
+        <v>8068692.562890496</v>
       </c>
     </row>
     <row r="3">
@@ -23643,28 +23643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2424.014104145731</v>
+        <v>2516.250013751451</v>
       </c>
       <c r="AB3" t="n">
-        <v>3316.643037247211</v>
+        <v>3442.844277930908</v>
       </c>
       <c r="AC3" t="n">
-        <v>3000.107280709951</v>
+        <v>3114.264052107345</v>
       </c>
       <c r="AD3" t="n">
-        <v>2424014.104145731</v>
+        <v>2516250.013751451</v>
       </c>
       <c r="AE3" t="n">
-        <v>3316643.037247211</v>
+        <v>3442844.277930908</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.124953115175687e-06</v>
+        <v>1.92354445948042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.30694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>3000107.280709951</v>
+        <v>3114264.052107345</v>
       </c>
     </row>
     <row r="4">
@@ -23749,28 +23749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1874.983537071779</v>
+        <v>1967.134016314376</v>
       </c>
       <c r="AB4" t="n">
-        <v>2565.43519385729</v>
+        <v>2691.519544949234</v>
       </c>
       <c r="AC4" t="n">
-        <v>2320.593659566458</v>
+        <v>2434.644697150685</v>
       </c>
       <c r="AD4" t="n">
-        <v>1874983.537071779</v>
+        <v>1967134.016314376</v>
       </c>
       <c r="AE4" t="n">
-        <v>2565435.193857289</v>
+        <v>2691519.544949234</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.299619619680361e-06</v>
+        <v>2.222204716929732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.84583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2320593.659566458</v>
+        <v>2434644.697150685</v>
       </c>
     </row>
     <row r="5">
@@ -23855,28 +23855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1641.277183938693</v>
+        <v>1723.255097263446</v>
       </c>
       <c r="AB5" t="n">
-        <v>2245.667851103972</v>
+        <v>2357.833648725187</v>
       </c>
       <c r="AC5" t="n">
-        <v>2031.344463209233</v>
+        <v>2132.805314531165</v>
       </c>
       <c r="AD5" t="n">
-        <v>1641277.183938693</v>
+        <v>1723255.097263446</v>
       </c>
       <c r="AE5" t="n">
-        <v>2245667.851103972</v>
+        <v>2357833.648725187</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.392439001530892e-06</v>
+        <v>2.380915515879877e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.79027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2031344.463209233</v>
+        <v>2132805.314531165</v>
       </c>
     </row>
     <row r="6">
@@ -23961,28 +23961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1504.571146937403</v>
+        <v>1576.291242998292</v>
       </c>
       <c r="AB6" t="n">
-        <v>2058.620620234105</v>
+        <v>2156.751219731942</v>
       </c>
       <c r="AC6" t="n">
-        <v>1862.148757531149</v>
+        <v>1950.913910340073</v>
       </c>
       <c r="AD6" t="n">
-        <v>1504571.146937403</v>
+        <v>1576291.242998292</v>
       </c>
       <c r="AE6" t="n">
-        <v>2058620.620234105</v>
+        <v>2156751.219731942</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.450710594290091e-06</v>
+        <v>2.480553445572219e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.19444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1862148.757531149</v>
+        <v>1950913.910340073</v>
       </c>
     </row>
     <row r="7">
@@ -24067,28 +24067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1390.299656212081</v>
+        <v>1462.10500361899</v>
       </c>
       <c r="AB7" t="n">
-        <v>1902.269325321345</v>
+        <v>2000.516569471832</v>
       </c>
       <c r="AC7" t="n">
-        <v>1720.719410764442</v>
+        <v>1809.590075824079</v>
       </c>
       <c r="AD7" t="n">
-        <v>1390299.656212081</v>
+        <v>1462105.00361899</v>
       </c>
       <c r="AE7" t="n">
-        <v>1902269.325321345</v>
+        <v>2000516.569471832</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.491485881844238e-06</v>
+        <v>2.550274643194088e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.80694444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1720719.410764442</v>
+        <v>1809590.075824079</v>
       </c>
     </row>
     <row r="8">
@@ -24173,28 +24173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1314.683015633588</v>
+        <v>1386.488363040496</v>
       </c>
       <c r="AB8" t="n">
-        <v>1798.807301711109</v>
+        <v>1897.054545861596</v>
       </c>
       <c r="AC8" t="n">
-        <v>1627.131657477704</v>
+        <v>1716.002322537342</v>
       </c>
       <c r="AD8" t="n">
-        <v>1314683.015633587</v>
+        <v>1386488.363040496</v>
       </c>
       <c r="AE8" t="n">
-        <v>1798807.301711109</v>
+        <v>1897054.545861596</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.51713724456012e-06</v>
+        <v>2.594135614788936e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.57361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1627131.657477705</v>
+        <v>1716002.322537342</v>
       </c>
     </row>
     <row r="9">
@@ -24279,28 +24279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1305.818082713311</v>
+        <v>1377.62343012022</v>
       </c>
       <c r="AB9" t="n">
-        <v>1786.677909396349</v>
+        <v>1884.925153546835</v>
       </c>
       <c r="AC9" t="n">
-        <v>1616.159877341756</v>
+        <v>1705.030542401393</v>
       </c>
       <c r="AD9" t="n">
-        <v>1305818.082713312</v>
+        <v>1377623.43012022</v>
       </c>
       <c r="AE9" t="n">
-        <v>1786677.909396349</v>
+        <v>1884925.153546835</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.521882005293693e-06</v>
+        <v>2.602248626875844e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.53194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1616159.877341756</v>
+        <v>1705030.542401393</v>
       </c>
     </row>
     <row r="10">
@@ -24385,28 +24385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1311.952901837048</v>
+        <v>1383.758249243957</v>
       </c>
       <c r="AB10" t="n">
-        <v>1795.071839570564</v>
+        <v>1893.31908372105</v>
       </c>
       <c r="AC10" t="n">
-        <v>1623.752702601099</v>
+        <v>1712.623367660736</v>
       </c>
       <c r="AD10" t="n">
-        <v>1311952.901837048</v>
+        <v>1383758.249243957</v>
       </c>
       <c r="AE10" t="n">
-        <v>1795071.839570564</v>
+        <v>1893319.08372105</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.521733731520769e-06</v>
+        <v>2.601995095248128e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.53333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1623752.702601099</v>
+        <v>1712623.367660736</v>
       </c>
     </row>
   </sheetData>
@@ -24682,28 +24682,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.5996758527849</v>
+        <v>979.8411215620613</v>
       </c>
       <c r="AB2" t="n">
-        <v>1240.449672856678</v>
+        <v>1340.66185006065</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.062897061287</v>
+        <v>1212.710964721585</v>
       </c>
       <c r="AD2" t="n">
-        <v>906599.6758527849</v>
+        <v>979841.1215620612</v>
       </c>
       <c r="AE2" t="n">
-        <v>1240449.672856678</v>
+        <v>1340661.85006065</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.383769363010291e-06</v>
+        <v>2.966055095900459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.12361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122062.897061287</v>
+        <v>1212710.964721585</v>
       </c>
     </row>
   </sheetData>
@@ -24979,28 +24979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2073.866075421675</v>
+        <v>2167.648515172469</v>
       </c>
       <c r="AB2" t="n">
-        <v>2837.555056905965</v>
+        <v>2965.872328362241</v>
       </c>
       <c r="AC2" t="n">
-        <v>2566.742784808395</v>
+        <v>2682.813635971305</v>
       </c>
       <c r="AD2" t="n">
-        <v>2073866.075421675</v>
+        <v>2167648.515172469</v>
       </c>
       <c r="AE2" t="n">
-        <v>2837555.056905965</v>
+        <v>2965872.328362241</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.146200907773829e-06</v>
+        <v>2.111797844248273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2566742.784808395</v>
+        <v>2682813.635971305</v>
       </c>
     </row>
     <row r="3">
@@ -25085,28 +25085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1209.758369242071</v>
+        <v>1284.698980188135</v>
       </c>
       <c r="AB3" t="n">
-        <v>1655.244771569533</v>
+        <v>1757.781821612356</v>
       </c>
       <c r="AC3" t="n">
-        <v>1497.270533721564</v>
+        <v>1590.021591619954</v>
       </c>
       <c r="AD3" t="n">
-        <v>1209758.369242071</v>
+        <v>1284698.980188135</v>
       </c>
       <c r="AE3" t="n">
-        <v>1655244.771569533</v>
+        <v>1757781.821612356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.513135434026542e-06</v>
+        <v>2.787849953669254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.99027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1497270.533721564</v>
+        <v>1590021.591619954</v>
       </c>
     </row>
     <row r="4">
@@ -25191,28 +25191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1057.201498983966</v>
+        <v>1122.763955463501</v>
       </c>
       <c r="AB4" t="n">
-        <v>1446.509731348281</v>
+        <v>1536.215176715025</v>
       </c>
       <c r="AC4" t="n">
-        <v>1308.456872777559</v>
+        <v>1389.600956340884</v>
       </c>
       <c r="AD4" t="n">
-        <v>1057201.498983966</v>
+        <v>1122763.955463501</v>
       </c>
       <c r="AE4" t="n">
-        <v>1446509.731348281</v>
+        <v>1536215.176715025</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.602460394355974e-06</v>
+        <v>2.952425166777076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.15416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1308456.872777559</v>
+        <v>1389600.956340884</v>
       </c>
     </row>
     <row r="5">
@@ -25297,28 +25297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1064.023174915857</v>
+        <v>1129.585631395392</v>
       </c>
       <c r="AB5" t="n">
-        <v>1455.843449309396</v>
+        <v>1545.54889467614</v>
       </c>
       <c r="AC5" t="n">
-        <v>1316.89979379642</v>
+        <v>1398.043877359745</v>
       </c>
       <c r="AD5" t="n">
-        <v>1064023.174915857</v>
+        <v>1129585.631395392</v>
       </c>
       <c r="AE5" t="n">
-        <v>1455843.449309396</v>
+        <v>1545548.89467614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.602623694100635e-06</v>
+        <v>2.952726035539614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.15277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1316899.793796421</v>
+        <v>1398043.877359746</v>
       </c>
     </row>
   </sheetData>
@@ -25594,28 +25594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3052.162501620602</v>
+        <v>3168.642331656859</v>
       </c>
       <c r="AB2" t="n">
-        <v>4176.103386623863</v>
+        <v>4335.476228806907</v>
       </c>
       <c r="AC2" t="n">
-        <v>3777.541940602239</v>
+        <v>3921.704462408516</v>
       </c>
       <c r="AD2" t="n">
-        <v>3052162.501620602</v>
+        <v>3168642.331656859</v>
       </c>
       <c r="AE2" t="n">
-        <v>4176103.386623863</v>
+        <v>4335476.228806907</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.49939261733615e-07</v>
+        <v>1.696997166153132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.98611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3777541.940602239</v>
+        <v>3921704.462408516</v>
       </c>
     </row>
     <row r="3">
@@ -25700,28 +25700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600.048310553814</v>
+        <v>1677.673173135013</v>
       </c>
       <c r="AB3" t="n">
-        <v>2189.256687649258</v>
+        <v>2295.466449200097</v>
       </c>
       <c r="AC3" t="n">
-        <v>1980.317102021071</v>
+        <v>2076.390352995835</v>
       </c>
       <c r="AD3" t="n">
-        <v>1600048.310553814</v>
+        <v>1677673.173135013</v>
       </c>
       <c r="AE3" t="n">
-        <v>2189256.687649258</v>
+        <v>2295466.449200097</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361233718651049e-06</v>
+        <v>2.431744697873852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04027777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>1980317.102021071</v>
+        <v>2076390.352995835</v>
       </c>
     </row>
     <row r="4">
@@ -25806,28 +25806,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1286.199004976233</v>
+        <v>1354.11010331653</v>
       </c>
       <c r="AB4" t="n">
-        <v>1759.834221703856</v>
+        <v>1852.753182479259</v>
       </c>
       <c r="AC4" t="n">
-        <v>1591.878113527282</v>
+        <v>1675.929019098861</v>
       </c>
       <c r="AD4" t="n">
-        <v>1286199.004976233</v>
+        <v>1354110.10331653</v>
       </c>
       <c r="AE4" t="n">
-        <v>1759834.221703856</v>
+        <v>1852753.182479259</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.508708565970833e-06</v>
+        <v>2.69519775014986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.47361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1591878.113527282</v>
+        <v>1675929.019098861</v>
       </c>
     </row>
     <row r="5">
@@ -25912,28 +25912,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1139.716906094722</v>
+        <v>1207.713255781039</v>
       </c>
       <c r="AB5" t="n">
-        <v>1559.410951680059</v>
+        <v>1652.446557108111</v>
       </c>
       <c r="AC5" t="n">
-        <v>1410.58295909873</v>
+        <v>1494.739376921021</v>
       </c>
       <c r="AD5" t="n">
-        <v>1139716.906094722</v>
+        <v>1207713.255781039</v>
       </c>
       <c r="AE5" t="n">
-        <v>1559410.951680059</v>
+        <v>1652446.557108111</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.575528192954743e-06</v>
+        <v>2.81456613737513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.85972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1410582.95909873</v>
+        <v>1494739.376921021</v>
       </c>
     </row>
     <row r="6">
@@ -26018,28 +26018,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1138.978949741581</v>
+        <v>1206.975299427898</v>
       </c>
       <c r="AB6" t="n">
-        <v>1558.401247241354</v>
+        <v>1651.436852669407</v>
       </c>
       <c r="AC6" t="n">
-        <v>1409.669619434527</v>
+        <v>1493.826037256818</v>
       </c>
       <c r="AD6" t="n">
-        <v>1138978.949741581</v>
+        <v>1206975.299427898</v>
       </c>
       <c r="AE6" t="n">
-        <v>1558401.247241355</v>
+        <v>1651436.852669407</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.578515423337553e-06</v>
+        <v>2.819902606451083e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.83472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1409669.619434527</v>
+        <v>1493826.037256818</v>
       </c>
     </row>
   </sheetData>
